--- a/data_year/zb/人民生活/农村居民按收入五等份分组的收入情况.xlsx
+++ b/data_year/zb/人民生活/农村居民按收入五等份分组的收入情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14537</v>
+        <v>14537.29</v>
       </c>
       <c r="C4" t="n">
-        <v>7221</v>
+        <v>7220.92</v>
       </c>
       <c r="D4" t="n">
-        <v>10311</v>
+        <v>10310.57</v>
       </c>
       <c r="E4" t="n">
-        <v>3086</v>
+        <v>3085.55</v>
       </c>
       <c r="F4" t="n">
-        <v>26014</v>
+        <v>26013.9</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15727</v>
+        <v>15727.38</v>
       </c>
       <c r="C5" t="n">
-        <v>7828</v>
+        <v>7827.74</v>
       </c>
       <c r="D5" t="n">
-        <v>11159</v>
+        <v>11159.05</v>
       </c>
       <c r="E5" t="n">
-        <v>3006</v>
+        <v>3006.45</v>
       </c>
       <c r="F5" t="n">
-        <v>28448</v>
+        <v>28447.95</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16944</v>
+        <v>16943.6095594659</v>
       </c>
       <c r="C6" t="n">
-        <v>8349</v>
+        <v>8348.571170663299</v>
       </c>
       <c r="D6" t="n">
-        <v>11978</v>
+        <v>11978.0486015057</v>
       </c>
       <c r="E6" t="n">
-        <v>3302</v>
+        <v>3301.8655208363</v>
       </c>
       <c r="F6" t="n">
-        <v>31299</v>
+        <v>31299.271219973</v>
       </c>
     </row>
     <row r="7">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18051</v>
+        <v>18051.47</v>
       </c>
       <c r="C7" t="n">
-        <v>8508</v>
+        <v>8508.49</v>
       </c>
       <c r="D7" t="n">
-        <v>12530</v>
+        <v>12530.23</v>
       </c>
       <c r="E7" t="n">
-        <v>3666</v>
+        <v>3666.16</v>
       </c>
       <c r="F7" t="n">
-        <v>34043</v>
+        <v>34042.57</v>
       </c>
     </row>
     <row r="8">
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19732</v>
+        <v>19732.43</v>
       </c>
       <c r="C8" t="n">
-        <v>9754</v>
+        <v>9754.07</v>
       </c>
       <c r="D8" t="n">
-        <v>13984</v>
+        <v>13984.22</v>
       </c>
       <c r="E8" t="n">
-        <v>4263</v>
+        <v>4262.57</v>
       </c>
       <c r="F8" t="n">
-        <v>36049</v>
+        <v>36049.41</v>
       </c>
     </row>
     <row r="9">
@@ -621,19 +621,63 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20884</v>
+        <v>20884.48</v>
       </c>
       <c r="C9" t="n">
-        <v>10392</v>
+        <v>10391.6</v>
       </c>
       <c r="D9" t="n">
-        <v>14712</v>
+        <v>14711.65</v>
       </c>
       <c r="E9" t="n">
-        <v>4681</v>
+        <v>4681.45</v>
       </c>
       <c r="F9" t="n">
-        <v>38520</v>
+        <v>38520.26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>23167.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11585.8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16546.4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4855.9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>43081.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>24646.19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11965.26</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17450.63</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5024.63</v>
+      </c>
+      <c r="F11" t="n">
+        <v>46075.42</v>
       </c>
     </row>
   </sheetData>
